--- a/Java Plan.xlsx
+++ b/Java Plan.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A1F5F-687A-422C-81F6-D8773F2D017B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136EF5DC-6ABA-41C6-A3DB-6C5C958035DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$28</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>数据结构与算法</t>
   </si>
@@ -299,12 +300,60 @@
   <si>
     <t>Elastic Search</t>
   </si>
+  <si>
+    <t>Java基础(资料齐全,细致全面):BV1Kb411W75N</t>
+  </si>
+  <si>
+    <t>数据结构和算法:BV1E4411H73v</t>
+  </si>
+  <si>
+    <t>设计模式:BV1G4411c7N4</t>
+  </si>
+  <si>
+    <t>Spring注解:BV1gW411W7wy</t>
+  </si>
+  <si>
+    <t>SpringBoot(雷神经典之作):BV1gW411W76m</t>
+  </si>
+  <si>
+    <t>SpringCloud2020新版(全新升级,重现经典):BV18E411x7eT</t>
+  </si>
+  <si>
+    <t>Nginx:BV1zJ411w7SV</t>
+  </si>
+  <si>
+    <t>JVM(java虚拟机详解):BV1PJ411n7xZ</t>
+  </si>
+  <si>
+    <t>Netty:BV1DJ411m7NR</t>
+  </si>
+  <si>
+    <t>MySQL高级:BV1KW411u7vy</t>
+  </si>
+  <si>
+    <t>【面试&amp;项目实战】</t>
+  </si>
+  <si>
+    <t>经典面试题:BV1Eb411P7bP</t>
+  </si>
+  <si>
+    <t>大厂面试题:BV18b411M7xz</t>
+  </si>
+  <si>
+    <t>尚筹网项目(资料齐全,毕设首选):BV1bE411T7oZ</t>
+  </si>
+  <si>
+    <t>尚硅谷大数据全套视频教程40阶段</t>
+  </si>
+  <si>
+    <t>2020尚硅谷javaee就业班（中）</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +386,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -455,6 +535,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1101,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="24" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="17"/>
@@ -1023,7 +1111,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1"/>
@@ -1148,62 +1236,186 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="28">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="28">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="28">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="28">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="28">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="28">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1221,8 +1433,42 @@
     <hyperlink ref="C16" r:id="rId5" xr:uid="{EE8CA125-9461-4D86-A1BB-A38D2BA946E2}"/>
     <hyperlink ref="C18" r:id="rId6" xr:uid="{0B8FBB03-D9D0-455C-B354-92BF077AB3A1}"/>
     <hyperlink ref="C19" r:id="rId7" xr:uid="{71F02F29-ABC7-4902-AB33-0280B7BC6412}"/>
+    <hyperlink ref="B34" r:id="rId8" display="https://www.bilibili.com/video/bv1Kb411W75N/?spm_id_from=333.788.b_636f6d6d656e74.12" xr:uid="{E4D8A1CC-A42A-4427-A9D1-F6ACF8591194}"/>
+    <hyperlink ref="B38" r:id="rId9" display="https://www.bilibili.com/video/bv1E4411H73v/?spm_id_from=333.788.b_636f6d6d656e74.15" xr:uid="{136609B7-BC6C-437B-A4A1-A8271BCCDA1D}"/>
+    <hyperlink ref="B36" r:id="rId10" display="https://www.bilibili.com/video/bv1G4411c7N4/?spm_id_from=333.788.b_636f6d6d656e74.16" xr:uid="{A03534F6-5EFC-4B49-84FC-92B093452D95}"/>
+    <hyperlink ref="B30" r:id="rId11" display="https://www.bilibili.com/video/bv1gW411W7wy/" xr:uid="{9C5D820C-D2C9-435D-AE53-11BB137E369A}"/>
+    <hyperlink ref="B31" r:id="rId12" display="https://www.bilibili.com/video/bv1gW411W76m/" xr:uid="{DAD7F0EB-15E8-4315-AA61-C59CCE8F1354}"/>
+    <hyperlink ref="B32" r:id="rId13" display="https://www.bilibili.com/video/bv18E411x7eT/" xr:uid="{535D13D3-9A60-4074-B12C-7450C231AC09}"/>
+    <hyperlink ref="B33" r:id="rId14" display="https://www.bilibili.com/video/bv1zJ411w7SV/?spm_id_from=333.788.b_636f6d6d656e74.21" xr:uid="{C7320D13-17B4-49AF-9635-D4B55851277D}"/>
+    <hyperlink ref="B37" r:id="rId15" display="https://www.bilibili.com/video/bv1PJ411n7xZ/?spm_id_from=333.788.b_636f6d6d656e74.22" xr:uid="{C1733345-D760-4755-B60A-C56E2872848E}"/>
+    <hyperlink ref="B39" r:id="rId16" display="https://www.bilibili.com/video/bv1DJ411m7NR/?spm_id_from=333.788.b_636f6d6d656e74.23" xr:uid="{244687BF-3F79-4175-AE04-CA9122C4B5C8}"/>
+    <hyperlink ref="B35" r:id="rId17" display="https://www.bilibili.com/video/bv1KW411u7vy/?spm_id_from=333.788.b_636f6d6d656e74.24" xr:uid="{56529E53-6F24-422C-9F24-C7017F1A801C}"/>
+    <hyperlink ref="B41" r:id="rId18" display="https://www.bilibili.com/video/bv1Eb411P7bP/?spm_id_from=333.788.b_636f6d6d656e74.25" xr:uid="{265D9E29-BC8A-442A-B36C-CBEE97EA83F1}"/>
+    <hyperlink ref="B42" r:id="rId19" display="https://www.bilibili.com/video/bv18b411M7xz/?spm_id_from=333.788.b_636f6d6d656e74.26" xr:uid="{10B76C39-6C28-4F42-B8EF-21D6EC6219BF}"/>
+    <hyperlink ref="B43" r:id="rId20" display="https://www.bilibili.com/video/bv1bE411T7oZ/?spm_id_from=333.788.b_636f6d6d656e74.27" xr:uid="{19A8601D-2301-4A09-B075-18AD064D475D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A1995D-8355-4D20-A56C-D34793304E99}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>